--- a/work examples/پشتیبانی سجاد/سجاد.xlsx
+++ b/work examples/پشتیبانی سجاد/سجاد.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alipour\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pouya\SQL_Tutorial_My_Files\work examples\پشتیبانی سجاد\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBDA55D-CBCF-4414-89B1-2728E1856027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BD9C34-1630-4854-BFA7-47BFB029A802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
   <si>
     <t>فرآیند صدور مجوز موسسات جذب دانشجوی بین الملل</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Sp_Cu_Select_Group_ForUni_VerificationDocuments_New</t>
   </si>
   <si>
-    <t>not done</t>
-  </si>
-  <si>
     <t>Sp_Cu_GetUniExpert_StudentGetCertificateCode_Support</t>
   </si>
   <si>
@@ -135,7 +132,13 @@
     <t>Sp_Cu_Get_UniversityID_TransmissionAndGuest</t>
   </si>
   <si>
-    <t>Sp_Cu_GetUniversityID_MentalHealth</t>
+    <t>Sp_Cu_Select_Group_ForExpert_Forsat</t>
+  </si>
+  <si>
+    <t>Sp_Cu_Select_Group_ForMentalHealth</t>
+  </si>
+  <si>
+    <t>Sp_Cu_Select_Group_ForBodyHealth</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -520,7 +523,7 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,7 +534,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -582,7 +588,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,7 +602,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,10 +616,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,7 +630,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -637,7 +652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>85</v>
       </c>
@@ -645,7 +660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>94</v>
       </c>
@@ -653,15 +668,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>104</v>
       </c>
@@ -671,8 +692,11 @@
       <c r="C20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>109</v>
       </c>
@@ -680,7 +704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2000040</v>
       </c>
@@ -688,7 +712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2000044</v>
       </c>
@@ -696,7 +720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2000047</v>
       </c>
@@ -704,7 +728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2000567</v>
       </c>
@@ -712,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2000578</v>
       </c>
@@ -723,7 +747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2000573</v>
       </c>

--- a/work examples/پشتیبانی سجاد/سجاد.xlsx
+++ b/work examples/پشتیبانی سجاد/سجاد.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pouya\SQL_Tutorial_My_Files\work examples\پشتیبانی سجاد\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BD9C34-1630-4854-BFA7-47BFB029A802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B2B1E4-EA00-46E3-8025-6746534ADE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>فرآیند صدور مجوز موسسات جذب دانشجوی بین الملل</t>
   </si>
@@ -473,7 +473,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,6 +757,9 @@
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work examples/پشتیبانی سجاد/سجاد.xlsx
+++ b/work examples/پشتیبانی سجاد/سجاد.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pouya\SQL_Tutorial_My_Files\work examples\پشتیبانی سجاد\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B2B1E4-EA00-46E3-8025-6746534ADE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077ADE01-1B1A-4F77-8789-E19C3D4B8600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>فرآیند صدور مجوز موسسات جذب دانشجوی بین الملل</t>
   </si>
@@ -746,6 +746,9 @@
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
